--- a/g3_report/two-way-anova-manual.xlsx
+++ b/g3_report/two-way-anova-manual.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\edson\course\mas\data_processing\group3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\edson\course\mas\data_processing\Rdemo\g3_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D593B66-4D5F-4805-B674-8676E7924DF1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF016A54-F168-4372-8ADE-37B946CC52E1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{4B9E64FD-4C18-4045-BF6B-37B11EFC6DED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" activeTab="1" xr2:uid="{4B9E64FD-4C18-4045-BF6B-37B11EFC6DED}"/>
   </bookViews>
   <sheets>
-    <sheet name="Manual" sheetId="4" r:id="rId1"/>
-    <sheet name="Excel - two-way ANOVA" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId1"/>
+    <sheet name="Manual" sheetId="4" r:id="rId2"/>
+    <sheet name="Excel - two-way ANOVA" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="65">
   <si>
     <t>zero</t>
   </si>
@@ -347,9 +348,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -358,16 +356,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -378,6 +367,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2197,6 +2198,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="706878256"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3924,8 +3926,8 @@
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="405624" cy="409920"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -3967,6 +3969,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4022,7 +4025,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -4491,11 +4494,429 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8737464D-DBA3-42F7-80F1-4A5D0DF77A8C}">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3">
+        <v>20</v>
+      </c>
+      <c r="C12" s="3">
+        <v>34</v>
+      </c>
+      <c r="D12" s="3">
+        <v>42</v>
+      </c>
+      <c r="E12" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3">
+        <v>17</v>
+      </c>
+      <c r="D13" s="3">
+        <v>21</v>
+      </c>
+      <c r="E13" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3">
+        <v>18</v>
+      </c>
+      <c r="E14" s="3">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="3">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3">
+        <v>4</v>
+      </c>
+      <c r="D17" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="3">
+        <v>36</v>
+      </c>
+      <c r="C18" s="3">
+        <v>48</v>
+      </c>
+      <c r="D18" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="3">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3">
+        <v>12</v>
+      </c>
+      <c r="D19" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3">
+        <v>36.666666666666664</v>
+      </c>
+      <c r="D20" s="3">
+        <v>54.666666666666664</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="3">
+        <v>192</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3">
+        <v>192</v>
+      </c>
+      <c r="E25" s="3">
+        <v>36</v>
+      </c>
+      <c r="F25" s="3">
+        <v>9.6453519441513154E-4</v>
+      </c>
+      <c r="G25" s="3">
+        <v>5.9873776072737011</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="3">
+        <v>72</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3">
+        <v>36</v>
+      </c>
+      <c r="E26" s="3">
+        <v>6.75</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2.9130632680928543E-2</v>
+      </c>
+      <c r="G26" s="3">
+        <v>5.1432528497847176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="3">
+        <v>56</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3">
+        <v>28</v>
+      </c>
+      <c r="E27" s="3">
+        <v>5.25</v>
+      </c>
+      <c r="F27" s="3">
+        <v>4.8084147257700986E-2</v>
+      </c>
+      <c r="G27" s="3">
+        <v>5.1432528497847176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="3">
+        <v>32</v>
+      </c>
+      <c r="C28" s="3">
+        <v>6</v>
+      </c>
+      <c r="D28" s="3">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="4">
+        <v>352</v>
+      </c>
+      <c r="C30" s="4">
+        <v>11</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB849BDC-563C-4F96-B425-F84ADA92AF0D}">
   <dimension ref="B2:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4513,30 +4934,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="10"/>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="11" t="s">
         <v>64</v>
       </c>
       <c r="M3" s="1"/>
@@ -4545,225 +4966,225 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="9">
         <v>8</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="9">
         <v>8</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="9">
         <v>10</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="12">
         <f>SUM(C4:C5)</f>
         <v>16</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="12">
         <f>SUM(D4:D5)</f>
         <v>14</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="12">
         <f>SUM(E4:E5)</f>
         <v>18</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="12">
         <f>SUM(G4:I5)</f>
         <v>48</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="9"/>
-      <c r="C5" s="13">
+      <c r="B5" s="12"/>
+      <c r="C5" s="9">
         <v>8</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="9">
         <v>6</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="9">
         <v>8</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="L5" s="10" t="s">
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="L5" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="9">
         <f>F16</f>
         <v>72</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="9">
         <v>2</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="9">
         <f>M5/N5</f>
         <v>36</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="9">
         <f>O5/$O$8</f>
         <v>6.75</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="9">
         <v>9</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="9">
         <v>15</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="9">
         <v>24</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="12">
         <f>SUM(C6:C7)</f>
         <v>20</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="12">
         <f>SUM(D6:D7)</f>
         <v>34</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="12">
         <f>SUM(E6:E7)</f>
         <v>42</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="12">
         <f>SUM(G6:I7)</f>
         <v>96</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="9">
         <f>F17</f>
         <v>192</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="9">
         <v>1</v>
       </c>
-      <c r="O6" s="13">
-        <f t="shared" ref="O6:O9" si="0">M6/N6</f>
+      <c r="O6" s="9">
+        <f t="shared" ref="O6:O8" si="0">M6/N6</f>
         <v>192</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="9">
         <f>O6/$O$8</f>
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="9"/>
-      <c r="C7" s="13">
+      <c r="B7" s="12"/>
+      <c r="C7" s="9">
         <v>11</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="9">
         <v>19</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="9">
         <v>18</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="L7" s="10" t="s">
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="L7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="9">
         <f>F18</f>
         <v>56</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="9">
         <v>2</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="9">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="9">
         <f>O7/$O$8</f>
         <v>5.25</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G8" s="9">
+      <c r="G8" s="12">
         <f>SUM(G4:G7)</f>
         <v>36</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="12">
         <f>SUM(H4:H7)</f>
         <v>48</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="12">
         <f>SUM(I4:I7)</f>
         <v>60</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="12">
         <f>SUM(G8:I9)</f>
         <v>144</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="9">
         <f>F15</f>
         <v>32</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="9">
         <v>6</v>
       </c>
-      <c r="O8" s="14">
+      <c r="O8" s="10">
         <f t="shared" si="0"/>
         <v>5.333333333333333</v>
       </c>
-      <c r="P8" s="13"/>
+      <c r="P8" s="9"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="L9" s="10" t="s">
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="L9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="9">
         <f>F13</f>
         <v>352</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="9">
         <v>11</v>
       </c>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="11" t="s">
         <v>63</v>
       </c>
       <c r="C12"/>
@@ -4771,131 +5192,131 @@
       <c r="E12"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="7">
         <f>SUMSQ(C4:E7)</f>
         <v>2080</v>
       </c>
       <c r="D13"/>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="7">
         <f>C13-(C14/C18)</f>
         <v>352</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="7">
         <f>J8^2</f>
         <v>20736</v>
       </c>
       <c r="D14"/>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="7">
         <f>C15-(C14/12)</f>
         <v>320</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="7">
         <f>SUMSQ(G4:I7)/2</f>
         <v>2048</v>
       </c>
       <c r="D15"/>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="7">
         <f>C13-C15</f>
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="7">
         <f>SUMSQ(G8:I9)/4</f>
         <v>1800</v>
       </c>
       <c r="D16"/>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="7">
         <f>C16-(C14/12)</f>
         <v>72</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="7">
         <f>SUMSQ(J4:J7)/6</f>
         <v>1920</v>
       </c>
       <c r="D17"/>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="7">
         <f>C17-(C14/12)</f>
         <v>192</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="7">
         <v>12</v>
       </c>
       <c r="D18"/>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="7">
         <f>F14-(F16+F17)</f>
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="7">
         <v>2</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="7">
         <v>4</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="7">
         <v>6</v>
       </c>
       <c r="D21"/>
@@ -4903,28 +5324,28 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="C2:E2"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2FF93B-03F7-4C78-A036-6EB0556D69E0}">
   <dimension ref="A1:G30"/>
   <sheetViews>
@@ -4961,242 +5382,242 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>2</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>2</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>16</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>14</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>18</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>8</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>7</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>9</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>0</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>2</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>2</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>1.6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>2</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>2</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>2</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>20</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>34</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>42</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>10</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>17</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>21</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>2</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>8</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>18</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>30.4</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>4</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>4</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>36</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>48</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>9</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>12</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>2</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>36.666666666666664</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>54.666666666666664</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
     </row>
     <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
@@ -5204,144 +5625,144 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>192</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>1</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>192</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>36</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>9.6453519441513154E-4</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="3">
         <v>5.9873776072737011</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>72</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>2</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>36</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>6.75</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <v>2.9130632680928543E-2</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="3">
         <v>5.1432528497847176</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>56</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>2</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>28</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>5.25</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="3">
         <v>4.8084147257700986E-2</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="3">
         <v>5.1432528497847176</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>32</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>6</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>5.333333333333333</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>352</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>11</v>
       </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDC8F26D-C406-4B8C-870E-A3394EE5B67D}">
   <dimension ref="C1:R57"/>
   <sheetViews>
@@ -5361,23 +5782,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="I2" t="s">
@@ -5385,7 +5806,7 @@
       </c>
     </row>
     <row r="3" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="14" t="s">
         <v>43</v>
       </c>
       <c r="E3" s="1">
@@ -5397,19 +5818,19 @@
       <c r="G3" s="1">
         <v>10</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="14">
         <f>SUM(E3:E4)</f>
         <v>16</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="14">
         <f>SUM(F3:F4)</f>
         <v>14</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="14">
         <f>SUM(G3:G4)</f>
         <v>18</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="14">
         <f>SUM(I3:K4)</f>
         <v>48</v>
       </c>
@@ -5429,7 +5850,7 @@
       </c>
     </row>
     <row r="4" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="D4" s="2"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="1">
         <v>8</v>
       </c>
@@ -5439,10 +5860,10 @@
       <c r="G4" s="1">
         <v>8</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
       <c r="N4" t="s">
         <v>6</v>
       </c>
@@ -5459,7 +5880,7 @@
       </c>
     </row>
     <row r="5" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="14" t="s">
         <v>44</v>
       </c>
       <c r="E5" s="1">
@@ -5471,19 +5892,19 @@
       <c r="G5" s="1">
         <v>24</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="14">
         <f>SUM(E5:E6)</f>
         <v>20</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="14">
         <f>SUM(F5:F6)</f>
         <v>34</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="14">
         <f>SUM(G5:G6)</f>
         <v>42</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="14">
         <f>SUM(I5:K6)</f>
         <v>96</v>
       </c>
@@ -5502,7 +5923,7 @@
       </c>
     </row>
     <row r="6" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="D6" s="2"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="1">
         <v>11</v>
       </c>
@@ -5512,10 +5933,10 @@
       <c r="G6" s="1">
         <v>18</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
       <c r="N6" t="s">
         <v>8</v>
       </c>
@@ -5532,19 +5953,19 @@
       </c>
     </row>
     <row r="7" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="I7" s="2">
+      <c r="I7" s="14">
         <f>SUM(I3:I6)</f>
         <v>36</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="14">
         <f>SUM(J3:J6)</f>
         <v>48</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="14">
         <f>SUM(K3:K6)</f>
         <v>60</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="14">
         <f>SUM(I7:K8)</f>
         <v>144</v>
       </c>
@@ -5564,10 +5985,10 @@
       </c>
     </row>
     <row r="8" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
       <c r="N8" t="s">
         <v>9</v>
       </c>
@@ -5741,11 +6162,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="J7:J8"/>
@@ -5756,6 +6172,11 @@
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="K5:K6"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
